--- a/demo/datos.xlsx
+++ b/demo/datos.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="datos 1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="contabilidad" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="48">
   <si>
     <t xml:space="preserve">nombre</t>
   </si>
@@ -83,6 +84,87 @@
   </si>
   <si>
     <t xml:space="preserve">jonatha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">factura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subtotal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">iva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FE011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test 11</t>
   </si>
 </sst>
 </file>
@@ -97,6 +179,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -180,7 +263,7 @@
   </sheetPr>
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -422,4 +505,257 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2394</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <f aca="false">(C2*0.16)</f>
+        <v>383.04</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <f aca="false">SUM(C2,D2)</f>
+        <v>2777.04</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>4643</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <f aca="false">(C3*0.16)</f>
+        <v>742.88</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <f aca="false">SUM(C3,D3)</f>
+        <v>5385.88</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>9534</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <f aca="false">(C4*0.16)</f>
+        <v>1525.44</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <f aca="false">SUM(C4,D4)</f>
+        <v>11059.44</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>5633</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <f aca="false">(C5*0.16)</f>
+        <v>901.28</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <f aca="false">SUM(C5,D5)</f>
+        <v>6534.28</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>2395</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <f aca="false">(C6*0.16)</f>
+        <v>383.2</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <f aca="false">SUM(C6,D6)</f>
+        <v>2778.2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>4644</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <f aca="false">(C7*0.16)</f>
+        <v>743.04</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <f aca="false">SUM(C7,D7)</f>
+        <v>5387.04</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>9535</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <f aca="false">(C8*0.16)</f>
+        <v>1525.6</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <f aca="false">SUM(C8,D8)</f>
+        <v>11060.6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>5634</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <f aca="false">(C9*0.16)</f>
+        <v>901.44</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <f aca="false">SUM(C9,D9)</f>
+        <v>6535.44</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>2396</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <f aca="false">(C10*0.16)</f>
+        <v>383.36</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <f aca="false">SUM(C10,D10)</f>
+        <v>2779.36</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>4645</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <f aca="false">(C11*0.16)</f>
+        <v>743.2</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <f aca="false">SUM(C11,D11)</f>
+        <v>5388.2</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>9536</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <f aca="false">(C12*0.16)</f>
+        <v>1525.76</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <f aca="false">SUM(C12,D12)</f>
+        <v>11061.76</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>